--- a/scripts/2022_01_18_whatif_P2H_2021Q4/data1.xlsx
+++ b/scripts/2022_01_18_whatif_P2H_2021Q4/data1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lichtblickit-my.sharepoint.com/personal/ruud_wijtvliet_lichtblick_de/Documents/Work_in_RM/python/2020_01_lichtblyck/scripts/2022_01_18_whatif_P2H_2021Q4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="214" documentId="11_6B1E5F2CB84CC0698F6B640E60FB32F049064C48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{707D7AD1-767B-499C-A6ED-7331A535E85A}"/>
+  <xr:revisionPtr revIDLastSave="215" documentId="11_6B1E5F2CB84CC0698F6B640E60FB32F049064C48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D6298D4-C77F-4DAA-B07E-DE50AAB27AD9}"/>
   <bookViews>
     <workbookView xWindow="1875" yWindow="-120" windowWidth="27045" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -726,7 +726,7 @@
   <dimension ref="C3:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3021,7 +3021,7 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3434,6 +3434,9 @@
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="ID" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 
